--- a/Data/Log/Log_06.12.2021.xlsx
+++ b/Data/Log/Log_06.12.2021.xlsx
@@ -116,9 +116,15 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -426,7 +432,7 @@
       <x:selection activeCell="H7" sqref="H7 H7:H7"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="9.597344" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="11.018594" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="7.554688" style="2" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.886719" style="2" bestFit="1" customWidth="1"/>
@@ -475,6 +481,45 @@
       <x:c r="E2" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="G2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8"/>
   </x:sheetData>
